--- a/架构图.xlsx
+++ b/架构图.xlsx
@@ -1416,7 +1416,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/架构图.xlsx
+++ b/架构图.xlsx
@@ -79,16 +79,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -97,7 +97,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4533900" y="1381126"/>
+          <a:off x="3686175" y="990601"/>
           <a:ext cx="1333500" cy="1190624"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -735,16 +735,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -753,7 +753,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8001000" y="1371601"/>
+          <a:off x="6886575" y="990601"/>
           <a:ext cx="1333500" cy="1190624"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1415,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/架构图.xlsx
+++ b/架构图.xlsx
@@ -1129,6 +1129,91 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>8772</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="矩形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9677400" y="1038226"/>
+          <a:ext cx="1333500" cy="1190624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>sleuth</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>-server</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>8773</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1415,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
